--- a/DataGenerator/XLSXS/SynergyData.xlsx
+++ b/DataGenerator/XLSXS/SynergyData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAECACA-9865-4183-A415-E2F235A66305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B03AD39-14A8-486B-8164-B83D800FFBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="132">
   <si>
     <t>synergyID</t>
   </si>
@@ -390,10 +390,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>eLevel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>bronze</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -427,6 +423,14 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>eSynergyLevel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUAL_BALDE</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -784,21 +788,21 @@
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="18.73046875" customWidth="1"/>
+    <col min="3" max="3" width="20.1328125" customWidth="1"/>
+    <col min="4" max="4" width="30.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24.1328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="121" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,13 +813,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>126</v>
-      </c>
       <c r="F1" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -830,7 +834,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -847,7 +851,7 @@
         <v>120</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -858,7 +862,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,10 +876,10 @@
         <v>119</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -886,7 +890,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -900,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>13</v>
@@ -913,7 +917,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
@@ -921,13 +925,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>16</v>
@@ -940,7 +944,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
@@ -954,7 +958,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>18</v>
@@ -967,7 +971,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
@@ -981,7 +985,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>21</v>
@@ -994,7 +998,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -1008,7 +1012,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>23</v>
@@ -1021,7 +1025,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
@@ -1035,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>25</v>
@@ -1048,7 +1052,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
@@ -1062,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>28</v>
@@ -1075,7 +1079,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
@@ -1089,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>30</v>
@@ -1102,7 +1106,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>31</v>
       </c>
@@ -1116,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>32</v>
@@ -1129,7 +1133,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
@@ -1143,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>35</v>
@@ -1156,7 +1160,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>36</v>
       </c>
@@ -1170,7 +1174,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>37</v>
@@ -1183,7 +1187,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>38</v>
       </c>
@@ -1197,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>39</v>
@@ -1210,7 +1214,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>40</v>
       </c>
@@ -1224,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>42</v>
@@ -1237,7 +1241,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>43</v>
       </c>
@@ -1251,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>44</v>
@@ -1264,7 +1268,7 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>45</v>
       </c>
@@ -1278,14 +1282,14 @@
         <v>4</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>46</v>
       </c>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>47</v>
       </c>
@@ -1299,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>49</v>
@@ -1308,7 +1312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>51</v>
       </c>
@@ -1322,7 +1326,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>52</v>
@@ -1331,7 +1335,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>54</v>
       </c>
@@ -1345,7 +1349,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>55</v>
@@ -1354,7 +1358,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>57</v>
       </c>
@@ -1368,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>59</v>
@@ -1377,7 +1381,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>61</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>62</v>
@@ -1400,7 +1404,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>63</v>
       </c>
@@ -1414,7 +1418,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>64</v>
@@ -1423,7 +1427,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>65</v>
       </c>
@@ -1437,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>67</v>
@@ -1446,7 +1450,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>69</v>
       </c>
@@ -1460,7 +1464,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>70</v>
@@ -1469,7 +1473,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>71</v>
       </c>
@@ -1483,7 +1487,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>72</v>
@@ -1492,7 +1496,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>73</v>
       </c>
@@ -1506,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>75</v>
@@ -1515,7 +1519,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>77</v>
       </c>
@@ -1529,14 +1533,14 @@
         <v>3</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>79</v>
       </c>
@@ -1550,28 +1554,28 @@
         <v>4</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>80</v>
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>82</v>
+      <c r="C31" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>83</v>
@@ -1580,7 +1584,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>85</v>
       </c>
@@ -1594,7 +1598,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>86</v>
@@ -1603,7 +1607,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>87</v>
       </c>
@@ -1617,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>88</v>
@@ -1626,16 +1630,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="2"/>
       <c r="C36" s="14"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D38" s="12"/>
     </row>
   </sheetData>

--- a/DataGenerator/XLSXS/SynergyData.xlsx
+++ b/DataGenerator/XLSXS/SynergyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8661DF6-619F-472C-B9B0-2F80174815D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29F0CE0-F160-4D7B-8784-DD1428F5EFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10890" yWindow="780" windowWidth="24435" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="38">
   <si>
     <t>synergyID</t>
   </si>
@@ -76,13 +76,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>EVERY_ALLY</t>
-  </si>
-  <si>
     <t>SELF</t>
-  </si>
-  <si>
-    <t>EVERY_ENEMY</t>
   </si>
   <si>
     <t>TEAM3</t>
@@ -110,6 +104,50 @@
   </si>
   <si>
     <t>CURRENT_ENEMY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시너지효과적용대상</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>casterType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>eSynergyRange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시너지효과적용시작시간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMBAT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLOBAL_ALLY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLOBAL_ENEMY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BORN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffTriggerTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>eBuffTriggerTime</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -117,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -167,6 +205,13 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -212,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -259,11 +304,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -294,6 +352,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -514,226 +578,276 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="121" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="121" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>900010</v>
       </c>
       <c r="B4" s="16">
         <v>690010</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>18</v>
+      <c r="C4" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="16">
+      <c r="G4" s="16">
         <v>1</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>900020</v>
       </c>
       <c r="B5" s="16">
         <v>690020</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>18</v>
+      <c r="C5" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="D5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="16">
+      <c r="G5" s="16">
         <v>1</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>900030</v>
       </c>
       <c r="B6" s="16">
         <v>690030</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>18</v>
+      <c r="C6" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="16">
+      <c r="G6" s="16">
         <v>1</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>900040</v>
       </c>
       <c r="B7" s="16">
         <v>690040</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>18</v>
+      <c r="C7" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="16">
+      <c r="G7" s="16">
         <v>1</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>900050</v>
       </c>
       <c r="B8" s="17">
         <v>690050</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>19</v>
+      <c r="C8" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="D8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="17">
+      <c r="G8" s="17">
         <v>4</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>900120</v>
       </c>
@@ -741,24 +855,30 @@
         <v>690120</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="16">
+      <c r="G9" s="16">
         <v>2</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>900121</v>
       </c>
@@ -766,24 +886,30 @@
         <v>690121</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="16">
+      <c r="G10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>900130</v>
       </c>
@@ -791,24 +917,30 @@
         <v>690130</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="16">
+      <c r="G11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>900131</v>
       </c>
@@ -816,24 +948,30 @@
         <v>690131</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="16">
+      <c r="G12" s="16">
         <v>3</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>900140</v>
       </c>
@@ -841,24 +979,30 @@
         <v>690140</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="16">
+      <c r="G13" s="16">
         <v>4</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="2"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>900141</v>
       </c>
@@ -866,49 +1010,61 @@
         <v>690141</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="16">
+      <c r="G14" s="16">
         <v>4</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>900142</v>
       </c>
       <c r="B15" s="17">
         <v>690142</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="17" t="s">
+      <c r="C15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="17">
+      <c r="G15" s="17">
         <v>4</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>900220</v>
       </c>
@@ -916,24 +1072,30 @@
         <v>690220</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="16">
+      <c r="G16" s="16">
         <v>2</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>900230</v>
       </c>
@@ -941,24 +1103,30 @@
         <v>690230</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="16">
+      <c r="G17" s="16">
         <v>3</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>900240</v>
       </c>
@@ -966,132 +1134,174 @@
         <v>690240</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="17">
+      <c r="G18" s="17">
         <v>4</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>900320</v>
       </c>
       <c r="B19" s="16">
         <v>690320</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="16">
+      <c r="G19" s="16">
         <v>2</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>900330</v>
       </c>
       <c r="B20" s="16">
         <v>690330</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="C20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="16">
+      <c r="G20" s="16">
         <v>3</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>900340</v>
       </c>
       <c r="B21" s="17">
         <v>690340</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>19</v>
+      <c r="C21" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="17">
+      <c r="G21" s="17">
         <v>4</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>900420</v>
       </c>
       <c r="B22" s="16">
         <v>690420</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="16">
+      <c r="G22" s="16">
         <v>2</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>900430</v>
       </c>
       <c r="B23" s="16">
         <v>690430</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="16">
+      <c r="G23" s="16">
         <v>3</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>900440</v>
       </c>
       <c r="B24" s="17">
         <v>690440</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="17">
+      <c r="G24" s="17">
         <v>4</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>911020</v>
       </c>
@@ -1099,18 +1309,24 @@
         <v>691020</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="16">
+      <c r="G25" s="16">
         <v>2</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>911030</v>
       </c>
@@ -1118,18 +1334,24 @@
         <v>691030</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="16">
+      <c r="G26" s="16">
         <v>3</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>911040</v>
       </c>
@@ -1137,75 +1359,99 @@
         <v>691040</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="16">
+      <c r="G27" s="16">
         <v>4</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>911120</v>
       </c>
       <c r="B28" s="16">
         <v>691120</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="16" t="s">
+      <c r="C28" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16">
+      <c r="G28" s="16">
         <v>2</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>911130</v>
       </c>
       <c r="B29" s="16">
         <v>691130</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="16" t="s">
+      <c r="C29" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16">
+      <c r="G29" s="16">
         <v>3</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>911140</v>
       </c>
       <c r="B30" s="16">
         <v>691140</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="16" t="s">
+      <c r="C30" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16">
+      <c r="G30" s="16">
         <v>4</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>911220</v>
       </c>
@@ -1213,18 +1459,24 @@
         <v>691220</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="16">
+        <v>32</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="16">
         <v>2</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>911230</v>
       </c>
@@ -1232,18 +1484,24 @@
         <v>691230</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="16">
+        <v>32</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="16">
         <v>3</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>911240</v>
       </c>
@@ -1251,18 +1509,24 @@
         <v>691240</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="16">
+        <v>32</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="16">
         <v>4</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>911320</v>
       </c>
@@ -1270,16 +1534,22 @@
         <v>691320</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="16">
+      <c r="G34" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>911330</v>
       </c>
@@ -1287,16 +1557,22 @@
         <v>691330</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="16">
+      <c r="G35" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>911340</v>
       </c>
@@ -1304,16 +1580,22 @@
         <v>691340</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="16">
+      <c r="G36" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>911420</v>
       </c>
@@ -1321,16 +1603,22 @@
         <v>691420</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="16">
+        <v>32</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>911430</v>
       </c>
@@ -1338,16 +1626,22 @@
         <v>691430</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="16">
+        <v>32</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>911440</v>
       </c>
@@ -1355,12 +1649,18 @@
         <v>691440</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="16">
+        <v>32</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="16">
         <v>4</v>
       </c>
     </row>

--- a/DataGenerator/XLSXS/SynergyData.xlsx
+++ b/DataGenerator/XLSXS/SynergyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29F0CE0-F160-4D7B-8784-DD1428F5EFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A587E9C1-A917-45D3-9B76-6403A78C1F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10890" yWindow="780" windowWidth="24435" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="40">
   <si>
     <t>synergyID</t>
   </si>
@@ -148,6 +148,13 @@
   </si>
   <si>
     <t>eBuffTriggerTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLOBAL_ALLY</t>
+  </si>
+  <si>
+    <t>DUAL_BLADE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -166,11 +173,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -578,17 +587,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
@@ -706,7 +715,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>5</v>
@@ -817,28 +826,29 @@
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>900050</v>
-      </c>
-      <c r="B8" s="17">
-        <v>690050</v>
+      <c r="A8" s="16">
+        <v>900002</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>29</v>
+      <c r="D8" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="17">
-        <v>4</v>
-      </c>
-      <c r="I8" s="6"/>
+      <c r="G8" s="16">
+        <v>2</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -849,27 +859,28 @@
     </row>
     <row r="9" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
-        <v>900120</v>
+        <v>900003</v>
       </c>
       <c r="B9" s="16">
-        <v>690120</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" s="16">
-        <v>2</v>
-      </c>
-      <c r="I9" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -880,27 +891,28 @@
     </row>
     <row r="10" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
-        <v>900121</v>
+        <v>900050</v>
       </c>
       <c r="B10" s="16">
-        <v>690121</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>32</v>
+        <v>690050</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" s="16">
-        <v>2</v>
-      </c>
-      <c r="I10" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -910,28 +922,29 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>900130</v>
-      </c>
-      <c r="B11" s="16">
-        <v>690130</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>18</v>
+      <c r="A11" s="17">
+        <v>900051</v>
+      </c>
+      <c r="B11" s="17">
+        <v>690060</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="16">
-        <v>3</v>
-      </c>
-      <c r="I11" s="6"/>
+      <c r="F11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="17">
+        <v>4</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -942,16 +955,16 @@
     </row>
     <row r="12" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
-        <v>900131</v>
+        <v>900120</v>
       </c>
       <c r="B12" s="16">
-        <v>690131</v>
+        <v>690120</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>18</v>
@@ -960,29 +973,29 @@
         <v>6</v>
       </c>
       <c r="G12" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
-        <v>900140</v>
+        <v>900121</v>
       </c>
       <c r="B13" s="16">
-        <v>690140</v>
+        <v>690121</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>18</v>
@@ -991,7 +1004,7 @@
         <v>6</v>
       </c>
       <c r="G13" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1004,16 +1017,16 @@
     </row>
     <row r="14" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
-        <v>900141</v>
+        <v>900130</v>
       </c>
       <c r="B14" s="16">
-        <v>690141</v>
+        <v>690130</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>18</v>
@@ -1022,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1034,11 +1047,11 @@
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <v>900142</v>
-      </c>
-      <c r="B15" s="17">
-        <v>690142</v>
+      <c r="A15" s="16">
+        <v>900131</v>
+      </c>
+      <c r="B15" s="16">
+        <v>690131</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>32</v>
@@ -1049,11 +1062,11 @@
       <c r="E15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="17">
-        <v>4</v>
+      <c r="G15" s="16">
+        <v>3</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1066,56 +1079,56 @@
     </row>
     <row r="16" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
-        <v>900220</v>
+        <v>900140</v>
       </c>
       <c r="B16" s="16">
-        <v>690220</v>
+        <v>690140</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>29</v>
+      <c r="D16" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
-        <v>900230</v>
+        <v>900141</v>
       </c>
       <c r="B17" s="16">
-        <v>690230</v>
+        <v>690141</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F17" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1128,72 +1141,78 @@
     </row>
     <row r="18" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
-        <v>900240</v>
+        <v>900142</v>
       </c>
       <c r="B18" s="17">
-        <v>690240</v>
+        <v>690142</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>29</v>
+      <c r="D18" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" s="17">
         <v>4</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
-        <v>900320</v>
+        <v>900220</v>
       </c>
       <c r="B19" s="16">
-        <v>690320</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>35</v>
+        <v>690220</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" s="16">
         <v>2</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
-        <v>900330</v>
+        <v>900230</v>
       </c>
       <c r="B20" s="16">
-        <v>690330</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>35</v>
+        <v>690230</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" s="16">
         <v>3</v>
@@ -1203,22 +1222,22 @@
     </row>
     <row r="21" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
-        <v>900340</v>
+        <v>900240</v>
       </c>
       <c r="B21" s="17">
-        <v>690340</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>35</v>
+        <v>690240</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>18</v>
+      <c r="E21" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" s="17">
         <v>4</v>
@@ -1228,10 +1247,10 @@
     </row>
     <row r="22" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
-        <v>900420</v>
+        <v>900320</v>
       </c>
       <c r="B22" s="16">
-        <v>690420</v>
+        <v>690320</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>35</v>
@@ -1240,10 +1259,10 @@
         <v>29</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G22" s="16">
         <v>2</v>
@@ -1253,22 +1272,22 @@
     </row>
     <row r="23" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
-        <v>900430</v>
+        <v>900330</v>
       </c>
       <c r="B23" s="16">
-        <v>690430</v>
+        <v>690330</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G23" s="16">
         <v>3</v>
@@ -1278,22 +1297,22 @@
     </row>
     <row r="24" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
-        <v>900440</v>
+        <v>900340</v>
       </c>
       <c r="B24" s="17">
-        <v>690440</v>
+        <v>690340</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G24" s="17">
         <v>4</v>
@@ -1303,22 +1322,22 @@
     </row>
     <row r="25" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
-        <v>911020</v>
+        <v>900420</v>
       </c>
       <c r="B25" s="16">
-        <v>691020</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>32</v>
+        <v>690420</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G25" s="16">
         <v>2</v>
@@ -1328,22 +1347,22 @@
     </row>
     <row r="26" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
-        <v>911030</v>
+        <v>900430</v>
       </c>
       <c r="B26" s="16">
-        <v>691030</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>32</v>
+        <v>690430</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G26" s="16">
         <v>3</v>
@@ -1352,25 +1371,25 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
-        <v>911040</v>
-      </c>
-      <c r="B27" s="16">
-        <v>691040</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>32</v>
+      <c r="A27" s="17">
+        <v>900440</v>
+      </c>
+      <c r="B27" s="17">
+        <v>690440</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="16">
+      <c r="E27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="17">
         <v>4</v>
       </c>
       <c r="I27" s="6"/>
@@ -1378,22 +1397,22 @@
     </row>
     <row r="28" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
-        <v>911120</v>
+        <v>911020</v>
       </c>
       <c r="B28" s="16">
-        <v>691120</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>35</v>
+        <v>691020</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" s="16">
         <v>2</v>
@@ -1403,22 +1422,22 @@
     </row>
     <row r="29" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
-        <v>911130</v>
+        <v>911030</v>
       </c>
       <c r="B29" s="16">
-        <v>691130</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>35</v>
+        <v>691030</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" s="16">
         <v>3</v>
@@ -1428,22 +1447,22 @@
     </row>
     <row r="30" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
-        <v>911140</v>
+        <v>911040</v>
       </c>
       <c r="B30" s="16">
-        <v>691140</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>35</v>
+        <v>691040</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" s="16">
         <v>4</v>
@@ -1453,13 +1472,13 @@
     </row>
     <row r="31" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
-        <v>911220</v>
+        <v>911120</v>
       </c>
       <c r="B31" s="16">
-        <v>691220</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>32</v>
+        <v>691120</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>18</v>
@@ -1468,7 +1487,7 @@
         <v>18</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G31" s="16">
         <v>2</v>
@@ -1478,13 +1497,13 @@
     </row>
     <row r="32" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
-        <v>911230</v>
+        <v>911130</v>
       </c>
       <c r="B32" s="16">
-        <v>691230</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>32</v>
+        <v>691130</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>18</v>
@@ -1493,7 +1512,7 @@
         <v>18</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G32" s="16">
         <v>3</v>
@@ -1503,13 +1522,13 @@
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
-        <v>911240</v>
+        <v>911140</v>
       </c>
       <c r="B33" s="16">
-        <v>691240</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>32</v>
+        <v>691140</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>18</v>
@@ -1518,7 +1537,7 @@
         <v>18</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G33" s="16">
         <v>4</v>
@@ -1526,12 +1545,12 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
-        <v>911320</v>
+        <v>911220</v>
       </c>
       <c r="B34" s="16">
-        <v>691320</v>
+        <v>691220</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>32</v>
@@ -1543,18 +1562,20 @@
         <v>18</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G34" s="16">
         <v>2</v>
       </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
-        <v>911330</v>
+        <v>911230</v>
       </c>
       <c r="B35" s="16">
-        <v>691330</v>
+        <v>691230</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>32</v>
@@ -1566,7 +1587,7 @@
         <v>18</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G35" s="16">
         <v>3</v>
@@ -1574,10 +1595,10 @@
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
-        <v>911340</v>
+        <v>911240</v>
       </c>
       <c r="B36" s="16">
-        <v>691340</v>
+        <v>691240</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>32</v>
@@ -1589,7 +1610,7 @@
         <v>18</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G36" s="16">
         <v>4</v>
@@ -1597,10 +1618,10 @@
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
-        <v>911420</v>
+        <v>911320</v>
       </c>
       <c r="B37" s="16">
-        <v>691420</v>
+        <v>691320</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>32</v>
@@ -1612,7 +1633,7 @@
         <v>18</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G37" s="16">
         <v>2</v>
@@ -1620,10 +1641,10 @@
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
-        <v>911430</v>
+        <v>911330</v>
       </c>
       <c r="B38" s="16">
-        <v>691430</v>
+        <v>691330</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>32</v>
@@ -1635,7 +1656,7 @@
         <v>18</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G38" s="16">
         <v>3</v>
@@ -1643,24 +1664,93 @@
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
+        <v>911340</v>
+      </c>
+      <c r="B39" s="16">
+        <v>691340</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <v>911420</v>
+      </c>
+      <c r="B40" s="16">
+        <v>691420</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <v>911430</v>
+      </c>
+      <c r="B41" s="16">
+        <v>691430</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
         <v>911440</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B42" s="16">
         <v>691440</v>
       </c>
-      <c r="C39" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="16" t="s">
+      <c r="C42" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G42" s="16">
         <v>4</v>
       </c>
     </row>

--- a/DataGenerator/XLSXS/SynergyData.xlsx
+++ b/DataGenerator/XLSXS/SynergyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A587E9C1-A917-45D3-9B76-6403A78C1F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051178C8-0201-453A-A0B0-7426636C9B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="42">
   <si>
     <t>synergyID</t>
   </si>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GLOBAL_ENEMY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BORN</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -154,7 +150,16 @@
     <t>GLOBAL_ALLY</t>
   </si>
   <si>
-    <t>DUAL_BLADE</t>
+    <t>COMBAT</t>
+  </si>
+  <si>
+    <t>EVERY_ENEMY</t>
+  </si>
+  <si>
+    <t>BORN</t>
+  </si>
+  <si>
+    <t>SWORD</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +227,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,12 +254,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB4C6E7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -266,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -326,6 +325,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -341,20 +355,19 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -363,10 +376,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -587,10 +603,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -605,29 +621,29 @@
     <col min="10" max="10" width="121" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="10"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -637,29 +653,29 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -669,29 +685,29 @@
       <c r="O2" s="2"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="1"/>
@@ -701,26 +717,26 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+    <row r="4" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
         <v>900010</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>690010</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>1</v>
       </c>
       <c r="I4" s="6"/>
@@ -732,26 +748,26 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>900020</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>690020</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>1</v>
       </c>
       <c r="I5" s="6"/>
@@ -763,26 +779,26 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+    <row r="6" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
         <v>900030</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>690030</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>1</v>
       </c>
       <c r="I6" s="6"/>
@@ -794,26 +810,26 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+    <row r="7" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>900040</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>690040</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>1</v>
       </c>
       <c r="I7" s="6"/>
@@ -825,30 +841,30 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+    <row r="8" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>900002</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>0</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="C8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>2</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -857,30 +873,30 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+    <row r="9" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>900003</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>0</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="C9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>3</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -889,30 +905,30 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+    <row r="10" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>900050</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>690050</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="C10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>4</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -921,30 +937,30 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+    <row r="11" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
         <v>900051</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>690060</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="C11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>4</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -953,88 +969,97 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+    <row r="12" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>900110</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="19">
+        <v>1</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+    </row>
+    <row r="13" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>900120</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B13" s="15">
         <v>690120</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="16" t="s">
+      <c r="C13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="16">
-        <v>2</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <v>900121</v>
-      </c>
-      <c r="B13" s="16">
-        <v>690121</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <v>2</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+    <row r="14" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
         <v>900130</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>690130</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="16" t="s">
+      <c r="C14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>3</v>
       </c>
       <c r="I14" s="6"/>
@@ -1046,27 +1071,27 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
-        <v>900131</v>
-      </c>
-      <c r="B15" s="16">
-        <v>690131</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="16" t="s">
+    <row r="15" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>900140</v>
+      </c>
+      <c r="B15" s="15">
+        <v>690140</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="16">
-        <v>3</v>
+      <c r="G15" s="15">
+        <v>4</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1077,18 +1102,18 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
-        <v>900140</v>
+        <v>900150</v>
       </c>
       <c r="B16" s="16">
-        <v>690140</v>
+        <v>690150</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>18</v>
@@ -1108,183 +1133,186 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
-        <v>900141</v>
-      </c>
-      <c r="B17" s="16">
-        <v>690141</v>
-      </c>
-      <c r="C17" s="16" t="s">
+    <row r="17" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>900210</v>
+      </c>
+      <c r="B17" s="19">
+        <v>0</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+    </row>
+    <row r="18" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>900220</v>
+      </c>
+      <c r="B18" s="15">
+        <v>690220</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="16" t="s">
+      <c r="D18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="16">
-        <v>4</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>900142</v>
-      </c>
-      <c r="B18" s="17">
-        <v>690142</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="E18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="15">
+        <v>2</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>900230</v>
+      </c>
+      <c r="B19" s="15">
+        <v>690230</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="17">
-        <v>4</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <v>900220</v>
-      </c>
-      <c r="B19" s="16">
-        <v>690220</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="D19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="15">
+        <v>3</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>900240</v>
+      </c>
+      <c r="B20" s="16">
+        <v>690240</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="16">
-        <v>2</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
-        <v>900230</v>
-      </c>
-      <c r="B20" s="16">
-        <v>690230</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
-        <v>900240</v>
-      </c>
-      <c r="B21" s="17">
-        <v>690240</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="17">
-        <v>4</v>
+    <row r="21" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>900310</v>
+      </c>
+      <c r="B21" s="19">
+        <v>690310</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+    <row r="22" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
         <v>900320</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>690320</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="16" t="s">
+      <c r="C22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="15">
         <v>2</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>900330</v>
       </c>
       <c r="B23" s="16">
         <v>690330</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>29</v>
+      <c r="C23" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>8</v>
@@ -1295,462 +1323,579 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
-        <v>900340</v>
-      </c>
-      <c r="B24" s="17">
-        <v>690340</v>
+    <row r="24" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>900410</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="17">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+    <row r="25" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
         <v>900420</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="15">
         <v>690420</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="16" t="s">
+      <c r="C25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="15">
         <v>2</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+    <row r="26" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
         <v>900430</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="15">
         <v>690430</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="16" t="s">
+      <c r="C26" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="15">
         <v>3</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+    <row r="27" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
         <v>900440</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="16">
         <v>690440</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="17" t="s">
+      <c r="C27" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="16">
         <v>4</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
-        <v>911020</v>
-      </c>
-      <c r="B28" s="16">
-        <v>691020</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="16" t="s">
+    <row r="28" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>911010</v>
+      </c>
+      <c r="B28" s="19">
+        <v>0</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="16">
-        <v>2</v>
+      <c r="G28" s="19">
+        <v>1</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
-        <v>911030</v>
-      </c>
-      <c r="B29" s="16">
-        <v>691030</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="16" t="s">
+    <row r="29" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>911020</v>
+      </c>
+      <c r="B29" s="15">
+        <v>691020</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="16">
-        <v>3</v>
+      <c r="G29" s="15">
+        <v>2</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
-        <v>911040</v>
-      </c>
-      <c r="B30" s="16">
-        <v>691040</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="16" t="s">
+    <row r="30" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>911030</v>
+      </c>
+      <c r="B30" s="15">
+        <v>691030</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="16">
-        <v>4</v>
+      <c r="G30" s="15">
+        <v>3</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
-        <v>911120</v>
+        <v>911040</v>
       </c>
       <c r="B31" s="16">
-        <v>691120</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="17" t="s">
+        <v>691040</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G31" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
-        <v>911130</v>
-      </c>
-      <c r="B32" s="16">
-        <v>691130</v>
+    <row r="32" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>911110</v>
+      </c>
+      <c r="B32" s="19">
+        <v>0</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="16">
-        <v>3</v>
+      <c r="G32" s="19">
+        <v>1</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
-        <v>911140</v>
-      </c>
-      <c r="B33" s="16">
-        <v>691140</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="16" t="s">
+      <c r="A33" s="15">
+        <v>911120</v>
+      </c>
+      <c r="B33" s="15">
+        <v>691120</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="16">
-        <v>4</v>
+      <c r="G33" s="15">
+        <v>2</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
-        <v>911220</v>
-      </c>
-      <c r="B34" s="16">
-        <v>691220</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="16">
-        <v>2</v>
+      <c r="A34" s="15">
+        <v>911130</v>
+      </c>
+      <c r="B34" s="15">
+        <v>691130</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="15">
+        <v>3</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
+        <v>911140</v>
+      </c>
+      <c r="B35" s="16">
+        <v>691140</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="16">
+        <v>4</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>911210</v>
+      </c>
+      <c r="B36" s="15">
+        <v>0</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>911220</v>
+      </c>
+      <c r="B37" s="15">
+        <v>691220</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
         <v>911230</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B38" s="15">
         <v>691230</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="16" t="s">
+      <c r="C38" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
-        <v>911240</v>
-      </c>
-      <c r="B36" s="16">
-        <v>691240</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
-        <v>911320</v>
-      </c>
-      <c r="B37" s="16">
-        <v>691320</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
-        <v>911330</v>
-      </c>
-      <c r="B38" s="16">
-        <v>691330</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="16">
+      <c r="G38" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
-        <v>911340</v>
+        <v>911240</v>
       </c>
       <c r="B39" s="16">
-        <v>691340</v>
+        <v>691240</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G39" s="16">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
+      <c r="A40" s="15">
+        <v>911310</v>
+      </c>
+      <c r="B40" s="15">
+        <v>0</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
+        <v>911320</v>
+      </c>
+      <c r="B41" s="15">
+        <v>691320</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>911330</v>
+      </c>
+      <c r="B42" s="15">
+        <v>691330</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
+        <v>911340</v>
+      </c>
+      <c r="B43" s="16">
+        <v>691340</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>911410</v>
+      </c>
+      <c r="B44" s="15">
+        <v>0</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
         <v>911420</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B45" s="15">
         <v>691420</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="16" t="s">
+      <c r="C45" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G45" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
         <v>911430</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B46" s="15">
         <v>691430</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="16">
+      <c r="C46" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
         <v>911440</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B47" s="15">
         <v>691440</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="16" t="s">
+      <c r="C47" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G47" s="15">
         <v>4</v>
       </c>
     </row>

--- a/DataGenerator/XLSXS/SynergyData.xlsx
+++ b/DataGenerator/XLSXS/SynergyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051178C8-0201-453A-A0B0-7426636C9B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE3B65B-76A4-4558-9202-A0CC18B3FB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,8 +605,8 @@
   </sheetPr>
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1758,7 +1758,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/DataGenerator/XLSXS/SynergyData.xlsx
+++ b/DataGenerator/XLSXS/SynergyData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE3B65B-76A4-4558-9202-A0CC18B3FB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D00F8D6-775A-431D-B12A-D2994E5B05A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="8535" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>CURRENT_ENEMY</t>
   </si>
   <si>
-    <t>ARMOR</t>
-  </si>
-  <si>
     <t>DUAL_BLADE</t>
   </si>
   <si>
@@ -160,6 +157,10 @@
   </si>
   <si>
     <t>SWORD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIELD</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -605,8 +606,8 @@
   </sheetPr>
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -629,10 +630,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>12</v>
@@ -658,22 +659,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="3"/>
@@ -693,10 +694,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>16</v>
@@ -725,13 +726,13 @@
         <v>690010</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>5</v>
@@ -756,10 +757,10 @@
         <v>690020</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>18</v>
@@ -787,10 +788,10 @@
         <v>690030</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>18</v>
@@ -818,10 +819,10 @@
         <v>690040</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>18</v>
@@ -849,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>18</v>
@@ -881,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>18</v>
@@ -913,7 +914,7 @@
         <v>690050</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>18</v>
@@ -945,10 +946,10 @@
         <v>690060</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>18</v>
@@ -977,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>18</v>
@@ -1017,10 +1018,10 @@
         <v>690120</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>18</v>
@@ -1048,10 +1049,10 @@
         <v>690130</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>18</v>
@@ -1079,13 +1080,13 @@
         <v>690140</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>6</v>
@@ -1110,10 +1111,10 @@
         <v>690150</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>18</v>
@@ -1141,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>18</v>
@@ -1181,13 +1182,13 @@
         <v>690220</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>7</v>
@@ -1206,13 +1207,13 @@
         <v>690230</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>7</v>
@@ -1231,13 +1232,13 @@
         <v>690240</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>7</v>
@@ -1256,7 +1257,7 @@
         <v>690310</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>18</v>
@@ -1281,7 +1282,7 @@
         <v>690320</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>18</v>
@@ -1306,7 +1307,7 @@
         <v>690330</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>18</v>
@@ -1331,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>18</v>
@@ -1356,7 +1357,7 @@
         <v>690420</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>18</v>
@@ -1381,7 +1382,7 @@
         <v>690430</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>18</v>
@@ -1406,7 +1407,7 @@
         <v>690440</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>18</v>
@@ -1431,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>18</v>
@@ -1456,7 +1457,7 @@
         <v>691020</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>18</v>
@@ -1481,7 +1482,7 @@
         <v>691030</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>18</v>
@@ -1506,7 +1507,7 @@
         <v>691040</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>18</v>
@@ -1515,7 +1516,7 @@
         <v>20</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" s="16">
         <v>4</v>
@@ -1531,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>18</v>
@@ -1556,7 +1557,7 @@
         <v>691120</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>18</v>
@@ -1581,7 +1582,7 @@
         <v>691130</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>18</v>
@@ -1606,7 +1607,7 @@
         <v>691140</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>18</v>
@@ -1631,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>18</v>
@@ -1640,7 +1641,7 @@
         <v>18</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G36" s="15">
         <v>1</v>
@@ -1654,7 +1655,7 @@
         <v>691220</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>18</v>
@@ -1663,7 +1664,7 @@
         <v>18</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G37" s="15">
         <v>2</v>
@@ -1677,7 +1678,7 @@
         <v>691230</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>18</v>
@@ -1686,7 +1687,7 @@
         <v>18</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G38" s="15">
         <v>3</v>
@@ -1700,7 +1701,7 @@
         <v>691240</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>18</v>
@@ -1708,8 +1709,8 @@
       <c r="E39" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="16" t="s">
-        <v>21</v>
+      <c r="F39" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="G39" s="16">
         <v>4</v>
@@ -1723,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>18</v>
@@ -1746,7 +1747,7 @@
         <v>691320</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>18</v>
@@ -1769,7 +1770,7 @@
         <v>691330</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>18</v>
@@ -1792,7 +1793,7 @@
         <v>691340</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>18</v>
@@ -1815,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>18</v>
@@ -1824,7 +1825,7 @@
         <v>18</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G44" s="15">
         <v>1</v>
@@ -1838,7 +1839,7 @@
         <v>691420</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>18</v>
@@ -1847,7 +1848,7 @@
         <v>18</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G45" s="15">
         <v>2</v>
@@ -1861,7 +1862,7 @@
         <v>691430</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>18</v>
@@ -1870,7 +1871,7 @@
         <v>18</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G46" s="15">
         <v>3</v>
@@ -1884,7 +1885,7 @@
         <v>691440</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>18</v>
@@ -1893,7 +1894,7 @@
         <v>18</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G47" s="15">
         <v>4</v>

--- a/DataGenerator/XLSXS/SynergyData.xlsx
+++ b/DataGenerator/XLSXS/SynergyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71226638-86C5-4F4D-8619-F535455FD8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051A6F5F-E7B5-4515-9002-ED8730DB86F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="113">
   <si>
     <t>synergyID</t>
   </si>
@@ -356,6 +356,10 @@
   </si>
   <si>
     <t>SHIELD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -745,8 +749,8 @@
   </sheetPr>
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1590,11 +1594,9 @@
         <v>25</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>18</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
         <v>8</v>
       </c>
@@ -1629,11 +1631,9 @@
         <v>25</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>18</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
         <v>8</v>
       </c>
@@ -1665,12 +1665,10 @@
       <c r="C23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="D23" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="11"/>
       <c r="F23" s="11" t="s">
         <v>8</v>
       </c>

--- a/DataGenerator/XLSXS/SynergyData.xlsx
+++ b/DataGenerator/XLSXS/SynergyData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051A6F5F-E7B5-4515-9002-ED8730DB86F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F565A8BC-421D-4C51-8A4E-7D5EF98ACECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="2280" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -749,8 +749,8 @@
   </sheetPr>
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1486,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>7</v>
@@ -1523,7 +1523,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>7</v>
@@ -1559,8 +1559,8 @@
       <c r="D20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>20</v>
+      <c r="E20" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>7</v>

--- a/DataGenerator/XLSXS/SynergyData.xlsx
+++ b/DataGenerator/XLSXS/SynergyData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F565A8BC-421D-4C51-8A4E-7D5EF98ACECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0887C2A-B8FE-40F8-80D2-678A4160DDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="2280" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="1665" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -292,15 +292,6 @@
     <t>RANGED가 1명만 존재할 때, 버프 삭제</t>
   </si>
   <si>
-    <t>공격력을 (5+저격수 실험체가 처치한 적의 수) 만큼 획득합니다.</t>
-  </si>
-  <si>
-    <t>공격력을 (10+저격수 실험체가 처치한 적의 수) 만큼 획득합니다.</t>
-  </si>
-  <si>
-    <t>공격력을 (20+저격수 실험체가 처치한 적의 수) 만큼 획득합니다.</t>
-  </si>
-  <si>
     <t>DES_ARMOR</t>
   </si>
   <si>
@@ -361,6 +352,15 @@
   <si>
     <t>SYSTEM</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 시작 후 매 3초마다 AD를 1획득함.</t>
+  </si>
+  <si>
+    <t>전투 시작 시 AD를 5 획득함. 이후, 매 3초마다 AD를 1 획득합니다.</t>
+  </si>
+  <si>
+    <t>전투 시작 시 AD를 10 획득함. 이후, 매 3초마다 AD를 2 획득합니다.</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +440,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -527,6 +533,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -749,8 +764,8 @@
   </sheetPr>
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="H24" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1594,7 +1609,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
@@ -1631,7 +1646,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
@@ -1666,7 +1681,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11" t="s">
@@ -2055,8 +2070,8 @@
       <c r="K33" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="L33" s="10" t="s">
-        <v>90</v>
+      <c r="L33" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="M33" s="10"/>
     </row>
@@ -2092,8 +2107,8 @@
       <c r="K34" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="L34" s="10" t="s">
-        <v>91</v>
+      <c r="L34" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="M34" s="10"/>
     </row>
@@ -2129,8 +2144,8 @@
       <c r="K35" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="L35" s="11" t="s">
-        <v>92</v>
+      <c r="L35" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="M35" s="11"/>
     </row>
@@ -2151,7 +2166,7 @@
         <v>18</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G36" s="10">
         <v>1</v>
@@ -2161,13 +2176,13 @@
         <v>46</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M36" s="10"/>
     </row>
@@ -2188,7 +2203,7 @@
         <v>18</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G37" s="10">
         <v>2</v>
@@ -2198,16 +2213,16 @@
         <v>46</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K37" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M37" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="M37" s="10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2227,7 +2242,7 @@
         <v>18</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G38" s="10">
         <v>3</v>
@@ -2237,13 +2252,13 @@
         <v>46</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M38" s="10"/>
     </row>
@@ -2264,7 +2279,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G39" s="11">
         <v>4</v>
@@ -2274,13 +2289,13 @@
         <v>46</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M39" s="11"/>
     </row>
@@ -2314,10 +2329,10 @@
         <v>11</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M40" s="10"/>
     </row>
@@ -2351,13 +2366,13 @@
         <v>11</v>
       </c>
       <c r="K41" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M41" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="M41" s="10" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2390,10 +2405,10 @@
         <v>11</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M42" s="10"/>
     </row>
@@ -2427,10 +2442,10 @@
         <v>11</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M43" s="11"/>
     </row>
@@ -2464,10 +2479,10 @@
         <v>21</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M44" s="10"/>
     </row>
@@ -2501,13 +2516,13 @@
         <v>21</v>
       </c>
       <c r="K45" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M45" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="L45" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M45" s="10" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2540,10 +2555,10 @@
         <v>21</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M46" s="10"/>
     </row>
@@ -2577,10 +2592,10 @@
         <v>21</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M47" s="10"/>
     </row>
